--- a/Libro.xlsx
+++ b/Libro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogelioadriansuclupetello/Development/RIMAC/ApagadoFinrisk/examples/demo_xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogelioadriansuclupetello/Development/RIMAC/ApagadoFinrisk/examples/xlsx-poc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9964A68F-5204-524F-99EE-AFC95CE68432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF9E8F9-A21F-3E41-B357-3521443A8BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-18560" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -279,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,10 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C3"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,6 +448,11 @@
       </c>
       <c r="C3">
         <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -458,13 +465,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:D17"/>
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A3:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
@@ -517,6 +528,45 @@
       <c r="B17" s="1" t="str">
         <f>VLOOKUP(A17,Hoja4!A5:B15,2,FALSE)</f>
         <v>BBB</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>500</v>
+      </c>
+      <c r="B20">
+        <f>+A20+1</f>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>300</v>
+      </c>
+      <c r="B21">
+        <f>-A21</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B23">
+        <f>+YEAR(A23) - 1</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f>+Hoja1!A3+1</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f>+Hoja1!A4+1</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -529,6 +579,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A5:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -593,6 +644,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8610B67C-C4EA-3C49-83D7-53521AFCADEA}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A5:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
